--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il18</t>
+  </si>
+  <si>
+    <t>Il18rap</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il18</t>
-  </si>
-  <si>
-    <t>Il18rap</t>
   </si>
 </sst>
 </file>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4.603443333333334</v>
+      </c>
+      <c r="H2">
+        <v>13.81033</v>
+      </c>
+      <c r="I2">
+        <v>0.08158091023488877</v>
+      </c>
+      <c r="J2">
+        <v>0.08188547928246082</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>0.097665</v>
-      </c>
-      <c r="H2">
-        <v>0.19533</v>
-      </c>
-      <c r="I2">
-        <v>0.001582406724321514</v>
-      </c>
-      <c r="J2">
-        <v>0.001075431277232573</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.315818</v>
+        <v>0.0463425</v>
       </c>
       <c r="N2">
-        <v>0.947454</v>
+        <v>0.092685</v>
       </c>
       <c r="O2">
-        <v>0.06869162989733926</v>
+        <v>0.0006486690150714467</v>
       </c>
       <c r="P2">
-        <v>0.07580638708820532</v>
+        <v>0.0004374455836053636</v>
       </c>
       <c r="Q2">
-        <v>0.03084436497</v>
+        <v>0.213335072675</v>
       </c>
       <c r="R2">
-        <v>0.18506618982</v>
+        <v>1.28001043605</v>
       </c>
       <c r="S2">
-        <v>0.0001086980970541544</v>
+        <v>5.291900869069741E-05</v>
       </c>
       <c r="T2">
-        <v>8.15245596886555E-05</v>
+        <v>3.582044127352098E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.097665</v>
+        <v>4.603443333333334</v>
       </c>
       <c r="H3">
-        <v>0.19533</v>
+        <v>13.81033</v>
       </c>
       <c r="I3">
-        <v>0.001582406724321514</v>
+        <v>0.08158091023488877</v>
       </c>
       <c r="J3">
-        <v>0.001075431277232573</v>
+        <v>0.08188547928246082</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.612052666666667</v>
+        <v>0.315818</v>
       </c>
       <c r="N3">
-        <v>4.836158</v>
+        <v>0.947454</v>
       </c>
       <c r="O3">
-        <v>0.350627656288386</v>
+        <v>0.00442059342939708</v>
       </c>
       <c r="P3">
-        <v>0.386944026166675</v>
+        <v>0.004471700576892013</v>
       </c>
       <c r="Q3">
-        <v>0.15744112369</v>
+        <v>1.453850266646667</v>
       </c>
       <c r="R3">
-        <v>0.9446467421400001</v>
+        <v>13.08465239982</v>
       </c>
       <c r="S3">
-        <v>0.0005548355610438348</v>
+        <v>0.0003606360357485823</v>
       </c>
       <c r="T3">
-        <v>0.0004161317082779415</v>
+        <v>0.000366167344946459</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.097665</v>
+        <v>4.603443333333334</v>
       </c>
       <c r="H4">
-        <v>0.19533</v>
+        <v>13.81033</v>
       </c>
       <c r="I4">
-        <v>0.001582406724321514</v>
+        <v>0.08158091023488877</v>
       </c>
       <c r="J4">
-        <v>0.001075431277232573</v>
+        <v>0.08188547928246082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.2945195</v>
+        <v>3.831954666666667</v>
       </c>
       <c r="N4">
-        <v>2.589039</v>
+        <v>11.495864</v>
       </c>
       <c r="O4">
-        <v>0.2815629710430966</v>
+        <v>0.05363694792954848</v>
       </c>
       <c r="P4">
-        <v>0.2071506296036114</v>
+        <v>0.05425705277583093</v>
       </c>
       <c r="Q4">
-        <v>0.1264292469675</v>
+        <v>17.64018616390223</v>
       </c>
       <c r="R4">
-        <v>0.5057169878700001</v>
+        <v>158.76167547512</v>
       </c>
       <c r="S4">
-        <v>0.0004455471386985399</v>
+        <v>0.004375751034313898</v>
       </c>
       <c r="T4">
-        <v>0.0002227762661741435</v>
+        <v>0.004442864771002687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.097665</v>
+        <v>4.603443333333334</v>
       </c>
       <c r="H5">
-        <v>0.19533</v>
+        <v>13.81033</v>
       </c>
       <c r="I5">
-        <v>0.001582406724321514</v>
+        <v>0.08158091023488877</v>
       </c>
       <c r="J5">
-        <v>0.001075431277232573</v>
+        <v>0.08188547928246082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06999699999999999</v>
+        <v>2.4032085</v>
       </c>
       <c r="N5">
-        <v>0.209991</v>
+        <v>4.806417</v>
       </c>
       <c r="O5">
-        <v>0.01522461676637828</v>
+        <v>0.03363838573029786</v>
       </c>
       <c r="P5">
-        <v>0.01680151124069276</v>
+        <v>0.0226848561214408</v>
       </c>
       <c r="Q5">
-        <v>0.006836257004999999</v>
+        <v>11.063034147935</v>
       </c>
       <c r="R5">
-        <v>0.04101754203</v>
+        <v>66.37820488761</v>
       </c>
       <c r="S5">
-        <v>2.409153594633506E-05</v>
+        <v>0.002744250126709993</v>
       </c>
       <c r="T5">
-        <v>1.806887069301565E-05</v>
+        <v>0.001857560315957845</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.097665</v>
+        <v>4.603443333333334</v>
       </c>
       <c r="H6">
-        <v>0.19533</v>
+        <v>13.81033</v>
       </c>
       <c r="I6">
-        <v>0.001582406724321514</v>
+        <v>0.08158091023488877</v>
       </c>
       <c r="J6">
-        <v>0.001075431277232573</v>
+        <v>0.08188547928246082</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,42 +809,42 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.305232666666667</v>
+        <v>64.23600733333333</v>
       </c>
       <c r="N6">
-        <v>3.915698</v>
+        <v>192.708022</v>
       </c>
       <c r="O6">
-        <v>0.2838931260047998</v>
+        <v>0.8991294731409735</v>
       </c>
       <c r="P6">
-        <v>0.3132974459008157</v>
+        <v>0.909524444615906</v>
       </c>
       <c r="Q6">
-        <v>0.12747554839</v>
+        <v>295.7068197185845</v>
       </c>
       <c r="R6">
-        <v>0.76485329034</v>
+        <v>2661.36137746726</v>
       </c>
       <c r="S6">
-        <v>0.0004492343915786502</v>
+        <v>0.07335180083785658</v>
       </c>
       <c r="T6">
-        <v>0.0003369298723988172</v>
+        <v>0.07447684506648745</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>13.81033</v>
       </c>
       <c r="I7">
-        <v>0.07458679860441011</v>
+        <v>0.08158091023488877</v>
       </c>
       <c r="J7">
-        <v>0.07603573865204179</v>
+        <v>0.08188547928246082</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.315818</v>
+        <v>0.6091133333333333</v>
       </c>
       <c r="N7">
-        <v>0.947454</v>
+        <v>1.82734</v>
       </c>
       <c r="O7">
-        <v>0.06869162989733926</v>
+        <v>0.00852593075471153</v>
       </c>
       <c r="P7">
-        <v>0.07580638708820532</v>
+        <v>0.008624500326324919</v>
       </c>
       <c r="Q7">
-        <v>1.453850266646667</v>
+        <v>2.804018713577778</v>
       </c>
       <c r="R7">
-        <v>13.08465239982</v>
+        <v>25.2361684222</v>
       </c>
       <c r="S7">
-        <v>0.00512348876496152</v>
+        <v>0.0006955531915689989</v>
       </c>
       <c r="T7">
-        <v>0.005763994636794295</v>
+        <v>0.0007062213427928557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,14 +900,14 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.603443333333334</v>
+        <v>36.354119</v>
       </c>
       <c r="H8">
-        <v>13.81033</v>
+        <v>109.062357</v>
       </c>
       <c r="I8">
-        <v>0.07458679860441011</v>
+        <v>0.6442573317525643</v>
       </c>
       <c r="J8">
-        <v>0.07603573865204179</v>
+        <v>0.6466625616201672</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.612052666666667</v>
+        <v>0.0463425</v>
       </c>
       <c r="N8">
-        <v>4.836158</v>
+        <v>0.092685</v>
       </c>
       <c r="O8">
-        <v>0.350627656288386</v>
+        <v>0.0006486690150714467</v>
       </c>
       <c r="P8">
-        <v>0.386944026166675</v>
+        <v>0.0004374455836053636</v>
       </c>
       <c r="Q8">
-        <v>7.42099310134889</v>
+        <v>1.6847407597575</v>
       </c>
       <c r="R8">
-        <v>66.78893791214</v>
+        <v>10.108444558545</v>
       </c>
       <c r="S8">
-        <v>0.02615219438471818</v>
+        <v>0.0004179097688404942</v>
       </c>
       <c r="T8">
-        <v>0.02942157484657812</v>
+        <v>0.0002828796816636735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.603443333333334</v>
+        <v>36.354119</v>
       </c>
       <c r="H9">
-        <v>13.81033</v>
+        <v>109.062357</v>
       </c>
       <c r="I9">
-        <v>0.07458679860441011</v>
+        <v>0.6442573317525643</v>
       </c>
       <c r="J9">
-        <v>0.07603573865204179</v>
+        <v>0.6466625616201672</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.2945195</v>
+        <v>0.315818</v>
       </c>
       <c r="N9">
-        <v>2.589039</v>
+        <v>0.947454</v>
       </c>
       <c r="O9">
-        <v>0.2815629710430966</v>
+        <v>0.00442059342939708</v>
       </c>
       <c r="P9">
-        <v>0.2071506296036114</v>
+        <v>0.004471700576892013</v>
       </c>
       <c r="Q9">
-        <v>5.959247162145001</v>
+        <v>11.481285154342</v>
       </c>
       <c r="R9">
-        <v>35.75548297287001</v>
+        <v>103.331566389078</v>
       </c>
       <c r="S9">
-        <v>0.0210008806156508</v>
+        <v>0.00284799972758628</v>
       </c>
       <c r="T9">
-        <v>0.01575085113414611</v>
+        <v>0.002891681349851368</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.603443333333334</v>
+        <v>36.354119</v>
       </c>
       <c r="H10">
-        <v>13.81033</v>
+        <v>109.062357</v>
       </c>
       <c r="I10">
-        <v>0.07458679860441011</v>
+        <v>0.6442573317525643</v>
       </c>
       <c r="J10">
-        <v>0.07603573865204179</v>
+        <v>0.6466625616201672</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.06999699999999999</v>
+        <v>3.831954666666667</v>
       </c>
       <c r="N10">
-        <v>0.209991</v>
+        <v>11.495864</v>
       </c>
       <c r="O10">
-        <v>0.01522461676637828</v>
+        <v>0.05363694792954848</v>
       </c>
       <c r="P10">
-        <v>0.01680151124069276</v>
+        <v>0.05425705277583093</v>
       </c>
       <c r="Q10">
-        <v>0.3222272230033333</v>
+        <v>139.3073359546053</v>
       </c>
       <c r="R10">
-        <v>2.90004500703</v>
+        <v>1253.766023591448</v>
       </c>
       <c r="S10">
-        <v>0.001135555424583182</v>
+        <v>0.03455599695644213</v>
       </c>
       <c r="T10">
-        <v>0.001277515317656657</v>
+        <v>0.03508600473397944</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,60 +1101,60 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.603443333333334</v>
+        <v>36.354119</v>
       </c>
       <c r="H11">
-        <v>13.81033</v>
+        <v>109.062357</v>
       </c>
       <c r="I11">
-        <v>0.07458679860441011</v>
+        <v>0.6442573317525643</v>
       </c>
       <c r="J11">
-        <v>0.07603573865204179</v>
+        <v>0.6466625616201672</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.305232666666667</v>
+        <v>2.4032085</v>
       </c>
       <c r="N11">
-        <v>3.915698</v>
+        <v>4.806417</v>
       </c>
       <c r="O11">
-        <v>0.2838931260047998</v>
+        <v>0.03363838573029786</v>
       </c>
       <c r="P11">
-        <v>0.3132974459008157</v>
+        <v>0.0226848561214408</v>
       </c>
       <c r="Q11">
-        <v>6.008564617815557</v>
+        <v>87.36652779081149</v>
       </c>
       <c r="R11">
-        <v>54.07708156034</v>
+        <v>524.1991667448689</v>
       </c>
       <c r="S11">
-        <v>0.02117467941449643</v>
+        <v>0.02167177663506523</v>
       </c>
       <c r="T11">
-        <v>0.02382180271686662</v>
+        <v>0.01466944716947584</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.02695066666666</v>
+        <v>36.354119</v>
       </c>
       <c r="H12">
-        <v>69.08085199999999</v>
+        <v>109.062357</v>
       </c>
       <c r="I12">
-        <v>0.3730917071167061</v>
+        <v>0.6442573317525643</v>
       </c>
       <c r="J12">
-        <v>0.3803394711445981</v>
+        <v>0.6466625616201672</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,42 +1181,42 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.315818</v>
+        <v>64.23600733333333</v>
       </c>
       <c r="N12">
-        <v>0.947454</v>
+        <v>192.708022</v>
       </c>
       <c r="O12">
-        <v>0.06869162989733926</v>
+        <v>0.8991294731409735</v>
       </c>
       <c r="P12">
-        <v>0.07580638708820532</v>
+        <v>0.909524444615906</v>
       </c>
       <c r="Q12">
-        <v>7.272325505645332</v>
+        <v>2335.243454680873</v>
       </c>
       <c r="R12">
-        <v>65.450929550808</v>
+        <v>21017.19109212785</v>
       </c>
       <c r="S12">
-        <v>0.02562827746302727</v>
+        <v>0.5792707552658924</v>
       </c>
       <c r="T12">
-        <v>0.0288321611745107</v>
+        <v>0.5881554072114816</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.02695066666666</v>
+        <v>36.354119</v>
       </c>
       <c r="H13">
-        <v>69.08085199999999</v>
+        <v>109.062357</v>
       </c>
       <c r="I13">
-        <v>0.3730917071167061</v>
+        <v>0.6442573317525643</v>
       </c>
       <c r="J13">
-        <v>0.3803394711445981</v>
+        <v>0.6466625616201672</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.612052666666667</v>
+        <v>0.6091133333333333</v>
       </c>
       <c r="N13">
-        <v>4.836158</v>
+        <v>1.82734</v>
       </c>
       <c r="O13">
-        <v>0.350627656288386</v>
+        <v>0.00852593075471153</v>
       </c>
       <c r="P13">
-        <v>0.386944026166675</v>
+        <v>0.008624500326324919</v>
       </c>
       <c r="Q13">
-        <v>37.12065722740178</v>
+        <v>22.14377860448666</v>
       </c>
       <c r="R13">
-        <v>334.085915046616</v>
+        <v>199.29400744038</v>
       </c>
       <c r="S13">
-        <v>0.1308162708469636</v>
+        <v>0.005492893398737577</v>
       </c>
       <c r="T13">
-        <v>0.1471700862747947</v>
+        <v>0.00557714147371524</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.02695066666666</v>
+        <v>0.629643</v>
       </c>
       <c r="H14">
-        <v>69.08085199999999</v>
+        <v>1.259286</v>
       </c>
       <c r="I14">
-        <v>0.3730917071167061</v>
+        <v>0.01115835372428307</v>
       </c>
       <c r="J14">
-        <v>0.3803394711445981</v>
+        <v>0.00746667441427489</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>1.2945195</v>
+        <v>0.0463425</v>
       </c>
       <c r="N14">
-        <v>2.589039</v>
+        <v>0.092685</v>
       </c>
       <c r="O14">
-        <v>0.2815629710430966</v>
+        <v>0.0006486690150714467</v>
       </c>
       <c r="P14">
-        <v>0.2071506296036114</v>
+        <v>0.0004374455836053636</v>
       </c>
       <c r="Q14">
-        <v>29.808836663538</v>
+        <v>0.0291792307275</v>
       </c>
       <c r="R14">
-        <v>178.853019981228</v>
+        <v>0.11671692291</v>
       </c>
       <c r="S14">
-        <v>0.1050488095273206</v>
+        <v>7.238078320149507E-06</v>
       </c>
       <c r="T14">
-        <v>0.07878756091070808</v>
+        <v>3.266263746743716E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.02695066666666</v>
+        <v>0.629643</v>
       </c>
       <c r="H15">
-        <v>69.08085199999999</v>
+        <v>1.259286</v>
       </c>
       <c r="I15">
-        <v>0.3730917071167061</v>
+        <v>0.01115835372428307</v>
       </c>
       <c r="J15">
-        <v>0.3803394711445981</v>
+        <v>0.00746667441427489</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.06999699999999999</v>
+        <v>0.315818</v>
       </c>
       <c r="N15">
-        <v>0.209991</v>
+        <v>0.947454</v>
       </c>
       <c r="O15">
-        <v>0.01522461676637828</v>
+        <v>0.00442059342939708</v>
       </c>
       <c r="P15">
-        <v>0.01680151124069276</v>
+        <v>0.004471700576892013</v>
       </c>
       <c r="Q15">
-        <v>1.611817465814666</v>
+        <v>0.198852592974</v>
       </c>
       <c r="R15">
-        <v>14.506357192332</v>
+        <v>1.193115557844</v>
       </c>
       <c r="S15">
-        <v>0.005680178259565699</v>
+        <v>4.932654515645416E-05</v>
       </c>
       <c r="T15">
-        <v>0.006390277899715105</v>
+        <v>3.338873228577786E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.02695066666666</v>
+        <v>0.629643</v>
       </c>
       <c r="H16">
-        <v>69.08085199999999</v>
+        <v>1.259286</v>
       </c>
       <c r="I16">
-        <v>0.3730917071167061</v>
+        <v>0.01115835372428307</v>
       </c>
       <c r="J16">
-        <v>0.3803394711445981</v>
+        <v>0.00746667441427489</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,42 +1429,42 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.305232666666667</v>
+        <v>3.831954666666667</v>
       </c>
       <c r="N16">
-        <v>3.915698</v>
+        <v>11.495864</v>
       </c>
       <c r="O16">
-        <v>0.2838931260047998</v>
+        <v>0.05363694792954848</v>
       </c>
       <c r="P16">
-        <v>0.3132974459008157</v>
+        <v>0.05425705277583093</v>
       </c>
       <c r="Q16">
-        <v>30.05552822385511</v>
+        <v>2.412763432184</v>
       </c>
       <c r="R16">
-        <v>270.499754014696</v>
+        <v>14.476580593104</v>
       </c>
       <c r="S16">
-        <v>0.1059181710198289</v>
+        <v>0.0005985000376888543</v>
       </c>
       <c r="T16">
-        <v>0.1191593848848696</v>
+        <v>0.0004051197477552593</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,60 +1473,60 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.43071</v>
+        <v>0.629643</v>
       </c>
       <c r="H17">
-        <v>6.86142</v>
+        <v>1.259286</v>
       </c>
       <c r="I17">
-        <v>0.05558571210973288</v>
+        <v>0.01115835372428307</v>
       </c>
       <c r="J17">
-        <v>0.03777702183089705</v>
+        <v>0.00746667441427489</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.315818</v>
+        <v>2.4032085</v>
       </c>
       <c r="N17">
-        <v>0.947454</v>
+        <v>4.806417</v>
       </c>
       <c r="O17">
-        <v>0.06869162989733926</v>
+        <v>0.03363838573029786</v>
       </c>
       <c r="P17">
-        <v>0.07580638708820532</v>
+        <v>0.0226848561214408</v>
       </c>
       <c r="Q17">
-        <v>1.08347997078</v>
+        <v>1.5131634095655</v>
       </c>
       <c r="R17">
-        <v>6.50087982468</v>
+        <v>6.052653638261999</v>
       </c>
       <c r="S17">
-        <v>0.00381827316382182</v>
+        <v>0.0003753490066925396</v>
       </c>
       <c r="T17">
-        <v>0.002863739539952565</v>
+        <v>0.0001693804347934691</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.43071</v>
+        <v>0.629643</v>
       </c>
       <c r="H18">
-        <v>6.86142</v>
+        <v>1.259286</v>
       </c>
       <c r="I18">
-        <v>0.05558571210973288</v>
+        <v>0.01115835372428307</v>
       </c>
       <c r="J18">
-        <v>0.03777702183089705</v>
+        <v>0.00746667441427489</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,42 +1553,42 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.612052666666667</v>
+        <v>64.23600733333333</v>
       </c>
       <c r="N18">
-        <v>4.836158</v>
+        <v>192.708022</v>
       </c>
       <c r="O18">
-        <v>0.350627656288386</v>
+        <v>0.8991294731409735</v>
       </c>
       <c r="P18">
-        <v>0.386944026166675</v>
+        <v>0.909524444615906</v>
       </c>
       <c r="Q18">
-        <v>5.530485204060001</v>
+        <v>40.445752365382</v>
       </c>
       <c r="R18">
-        <v>33.18291122436</v>
+        <v>242.674514192292</v>
       </c>
       <c r="S18">
-        <v>0.0194898879601566</v>
+        <v>0.01003280470523525</v>
       </c>
       <c r="T18">
-        <v>0.01461759292383368</v>
+        <v>0.006791122899771164</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.43071</v>
+        <v>0.629643</v>
       </c>
       <c r="H19">
-        <v>6.86142</v>
+        <v>1.259286</v>
       </c>
       <c r="I19">
-        <v>0.05558571210973288</v>
+        <v>0.01115835372428307</v>
       </c>
       <c r="J19">
-        <v>0.03777702183089705</v>
+        <v>0.00746667441427489</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1.2945195</v>
+        <v>0.6091133333333333</v>
       </c>
       <c r="N19">
-        <v>2.589039</v>
+        <v>1.82734</v>
       </c>
       <c r="O19">
-        <v>0.2815629710430966</v>
+        <v>0.00852593075471153</v>
       </c>
       <c r="P19">
-        <v>0.2071506296036114</v>
+        <v>0.008624500326324919</v>
       </c>
       <c r="Q19">
-        <v>4.441120993845</v>
+        <v>0.3835239465399999</v>
       </c>
       <c r="R19">
-        <v>17.76448397538</v>
+        <v>2.30114367924</v>
       </c>
       <c r="S19">
-        <v>0.01565087824916262</v>
+        <v>9.513535118981494E-05</v>
       </c>
       <c r="T19">
-        <v>0.007825533856819698</v>
+        <v>6.439633592247571E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.43071</v>
+        <v>6.102351666666666</v>
       </c>
       <c r="H20">
-        <v>6.86142</v>
+        <v>18.307055</v>
       </c>
       <c r="I20">
-        <v>0.05558571210973288</v>
+        <v>0.1081441363544659</v>
       </c>
       <c r="J20">
-        <v>0.03777702183089705</v>
+        <v>0.1085478748824518</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.06999699999999999</v>
+        <v>0.0463425</v>
       </c>
       <c r="N20">
-        <v>0.209991</v>
+        <v>0.092685</v>
       </c>
       <c r="O20">
-        <v>0.01522461676637828</v>
+        <v>0.0006486690150714467</v>
       </c>
       <c r="P20">
-        <v>0.01680151124069276</v>
+        <v>0.0004374455836053636</v>
       </c>
       <c r="Q20">
-        <v>0.24013940787</v>
+        <v>0.2827982321125</v>
       </c>
       <c r="R20">
-        <v>1.44083644722</v>
+        <v>1.696789392675</v>
       </c>
       <c r="S20">
-        <v>0.0008462711645569155</v>
+        <v>7.014975041480364E-05</v>
       </c>
       <c r="T20">
-        <v>0.0006347110569317128</v>
+        <v>4.748378847707611E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.43071</v>
+        <v>6.102351666666666</v>
       </c>
       <c r="H21">
-        <v>6.86142</v>
+        <v>18.307055</v>
       </c>
       <c r="I21">
-        <v>0.05558571210973288</v>
+        <v>0.1081441363544659</v>
       </c>
       <c r="J21">
-        <v>0.03777702183089705</v>
+        <v>0.1085478748824518</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,60 +1739,60 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.305232666666667</v>
+        <v>0.315818</v>
       </c>
       <c r="N21">
-        <v>3.915698</v>
+        <v>0.947454</v>
       </c>
       <c r="O21">
-        <v>0.2838931260047998</v>
+        <v>0.00442059342939708</v>
       </c>
       <c r="P21">
-        <v>0.3132974459008157</v>
+        <v>0.004471700576892013</v>
       </c>
       <c r="Q21">
-        <v>4.47787476186</v>
+        <v>1.927232498663333</v>
       </c>
       <c r="R21">
-        <v>26.86724857116</v>
+        <v>17.34509248797</v>
       </c>
       <c r="S21">
-        <v>0.01578040157203492</v>
+        <v>0.0004780612585963739</v>
       </c>
       <c r="T21">
-        <v>0.0118354444533594</v>
+        <v>0.0004853935947322617</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.451068</v>
+        <v>6.102351666666666</v>
       </c>
       <c r="H22">
-        <v>1.353204</v>
+        <v>18.307055</v>
       </c>
       <c r="I22">
-        <v>0.0073083810610378</v>
+        <v>0.1081441363544659</v>
       </c>
       <c r="J22">
-        <v>0.007450355327272958</v>
+        <v>0.1085478748824518</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,214 +1801,214 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315818</v>
+        <v>3.831954666666667</v>
       </c>
       <c r="N22">
-        <v>0.947454</v>
+        <v>11.495864</v>
       </c>
       <c r="O22">
-        <v>0.06869162989733926</v>
+        <v>0.05363694792954848</v>
       </c>
       <c r="P22">
-        <v>0.07580638708820532</v>
+        <v>0.05425705277583093</v>
       </c>
       <c r="Q22">
-        <v>0.142455393624</v>
+        <v>23.38393494672444</v>
       </c>
       <c r="R22">
-        <v>1.282098542616</v>
+        <v>210.45541452052</v>
       </c>
       <c r="S22">
-        <v>0.0005020246069935322</v>
+        <v>0.00580052141053048</v>
       </c>
       <c r="T22">
-        <v>0.0005647845198839264</v>
+        <v>0.00588948777620148</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.102351666666666</v>
+      </c>
+      <c r="H23">
+        <v>18.307055</v>
+      </c>
+      <c r="I23">
+        <v>0.1081441363544659</v>
+      </c>
+      <c r="J23">
+        <v>0.1085478748824518</v>
+      </c>
+      <c r="K23">
         <v>2</v>
       </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.451068</v>
-      </c>
-      <c r="H23">
-        <v>1.353204</v>
-      </c>
-      <c r="I23">
-        <v>0.0073083810610378</v>
-      </c>
-      <c r="J23">
-        <v>0.007450355327272958</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.612052666666667</v>
+        <v>2.4032085</v>
       </c>
       <c r="N23">
-        <v>4.836158</v>
+        <v>4.806417</v>
       </c>
       <c r="O23">
-        <v>0.350627656288386</v>
+        <v>0.03363838573029786</v>
       </c>
       <c r="P23">
-        <v>0.386944026166675</v>
+        <v>0.0226848561214408</v>
       </c>
       <c r="Q23">
-        <v>0.727145372248</v>
+        <v>14.6652233953225</v>
       </c>
       <c r="R23">
-        <v>6.544308350232</v>
+        <v>87.99134037193498</v>
       </c>
       <c r="S23">
-        <v>0.002562520522694112</v>
+        <v>0.003637794173161453</v>
       </c>
       <c r="T23">
-        <v>0.002882870486707334</v>
+        <v>0.002462392923996577</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.451068</v>
+        <v>6.102351666666666</v>
       </c>
       <c r="H24">
-        <v>1.353204</v>
+        <v>18.307055</v>
       </c>
       <c r="I24">
-        <v>0.0073083810610378</v>
+        <v>0.1081441363544659</v>
       </c>
       <c r="J24">
-        <v>0.007450355327272958</v>
+        <v>0.1085478748824518</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1.2945195</v>
+        <v>64.23600733333333</v>
       </c>
       <c r="N24">
-        <v>2.589039</v>
+        <v>192.708022</v>
       </c>
       <c r="O24">
-        <v>0.2815629710430966</v>
+        <v>0.8991294731409735</v>
       </c>
       <c r="P24">
-        <v>0.2071506296036114</v>
+        <v>0.909524444615906</v>
       </c>
       <c r="Q24">
-        <v>0.583916321826</v>
+        <v>391.9907064105789</v>
       </c>
       <c r="R24">
-        <v>3.503497930956</v>
+        <v>3527.91635769521</v>
       </c>
       <c r="S24">
-        <v>0.002057769485060902</v>
+        <v>0.09723558034367653</v>
       </c>
       <c r="T24">
-        <v>0.001543345796815213</v>
+        <v>0.09872694561669881</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.451068</v>
+        <v>6.102351666666666</v>
       </c>
       <c r="H25">
-        <v>1.353204</v>
+        <v>18.307055</v>
       </c>
       <c r="I25">
-        <v>0.0073083810610378</v>
+        <v>0.1081441363544659</v>
       </c>
       <c r="J25">
-        <v>0.007450355327272958</v>
+        <v>0.1085478748824518</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.06999699999999999</v>
+        <v>0.6091133333333333</v>
       </c>
       <c r="N25">
-        <v>0.209991</v>
+        <v>1.82734</v>
       </c>
       <c r="O25">
-        <v>0.01522461676637828</v>
+        <v>0.00852593075471153</v>
       </c>
       <c r="P25">
-        <v>0.01680151124069276</v>
+        <v>0.008624500326324919</v>
       </c>
       <c r="Q25">
-        <v>0.03157340679599999</v>
+        <v>3.717023764855555</v>
       </c>
       <c r="R25">
-        <v>0.284160661164</v>
+        <v>33.45321388369999</v>
       </c>
       <c r="S25">
-        <v>0.0001112673008369576</v>
+        <v>0.0009220294180862582</v>
       </c>
       <c r="T25">
-        <v>0.0001251772287783318</v>
+        <v>0.000936171182345582</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,75 +2016,75 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.451068</v>
+        <v>8.738390666666666</v>
       </c>
       <c r="H26">
-        <v>1.353204</v>
+        <v>26.215172</v>
       </c>
       <c r="I26">
-        <v>0.0073083810610378</v>
+        <v>0.154859267933798</v>
       </c>
       <c r="J26">
-        <v>0.007450355327272958</v>
+        <v>0.1554374098006454</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>1.305232666666667</v>
+        <v>0.0463425</v>
       </c>
       <c r="N26">
-        <v>3.915698</v>
+        <v>0.092685</v>
       </c>
       <c r="O26">
-        <v>0.2838931260047998</v>
+        <v>0.0006486690150714467</v>
       </c>
       <c r="P26">
-        <v>0.3132974459008157</v>
+        <v>0.0004374455836053636</v>
       </c>
       <c r="Q26">
-        <v>0.588748688488</v>
+        <v>0.40495886947</v>
       </c>
       <c r="R26">
-        <v>5.298738196392</v>
+        <v>2.42975321682</v>
       </c>
       <c r="S26">
-        <v>0.002074799145452296</v>
+        <v>0.000100452408805302</v>
       </c>
       <c r="T26">
-        <v>0.002334177295088153</v>
+        <v>6.799540844434938E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>30.10944066666667</v>
+        <v>8.738390666666666</v>
       </c>
       <c r="H27">
-        <v>90.328322</v>
+        <v>26.215172</v>
       </c>
       <c r="I27">
-        <v>0.4878449943837915</v>
+        <v>0.154859267933798</v>
       </c>
       <c r="J27">
-        <v>0.4973219817679575</v>
+        <v>0.1554374098006454</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,36 +2117,36 @@
         <v>0.947454</v>
       </c>
       <c r="O27">
-        <v>0.06869162989733926</v>
+        <v>0.00442059342939708</v>
       </c>
       <c r="P27">
-        <v>0.07580638708820532</v>
+        <v>0.004471700576892013</v>
       </c>
       <c r="Q27">
-        <v>9.509103332465333</v>
+        <v>2.759741063565333</v>
       </c>
       <c r="R27">
-        <v>85.58192999218799</v>
+        <v>24.837669572088</v>
       </c>
       <c r="S27">
-        <v>0.03351086780148096</v>
+        <v>0.0006845698623093895</v>
       </c>
       <c r="T27">
-        <v>0.03770018265737517</v>
+        <v>0.0006950695550761461</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>30.10944066666667</v>
+        <v>8.738390666666666</v>
       </c>
       <c r="H28">
-        <v>90.328322</v>
+        <v>26.215172</v>
       </c>
       <c r="I28">
-        <v>0.4878449943837915</v>
+        <v>0.154859267933798</v>
       </c>
       <c r="J28">
-        <v>0.4973219817679575</v>
+        <v>0.1554374098006454</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,42 +2173,42 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.612052666666667</v>
+        <v>3.831954666666667</v>
       </c>
       <c r="N28">
-        <v>4.836158</v>
+        <v>11.495864</v>
       </c>
       <c r="O28">
-        <v>0.350627656288386</v>
+        <v>0.05363694792954848</v>
       </c>
       <c r="P28">
-        <v>0.386944026166675</v>
+        <v>0.05425705277583093</v>
       </c>
       <c r="Q28">
-        <v>48.53800411854179</v>
+        <v>33.48511689428977</v>
       </c>
       <c r="R28">
-        <v>436.842037066876</v>
+        <v>301.366052048608</v>
       </c>
       <c r="S28">
-        <v>0.1710519470128097</v>
+        <v>0.008306178490573123</v>
       </c>
       <c r="T28">
-        <v>0.1924357699264832</v>
+        <v>0.008433575746892075</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,60 +2217,60 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>30.10944066666667</v>
+        <v>8.738390666666666</v>
       </c>
       <c r="H29">
-        <v>90.328322</v>
+        <v>26.215172</v>
       </c>
       <c r="I29">
-        <v>0.4878449943837915</v>
+        <v>0.154859267933798</v>
       </c>
       <c r="J29">
-        <v>0.4973219817679575</v>
+        <v>0.1554374098006454</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>1.2945195</v>
+        <v>2.4032085</v>
       </c>
       <c r="N29">
-        <v>2.589039</v>
+        <v>4.806417</v>
       </c>
       <c r="O29">
-        <v>0.2815629710430966</v>
+        <v>0.03363838573029786</v>
       </c>
       <c r="P29">
-        <v>0.2071506296036114</v>
+        <v>0.0226848561214408</v>
       </c>
       <c r="Q29">
-        <v>38.977258077093</v>
+        <v>21.000174726454</v>
       </c>
       <c r="R29">
-        <v>233.863548462558</v>
+        <v>126.001048358724</v>
       </c>
       <c r="S29">
-        <v>0.1373590860272031</v>
+        <v>0.005209215788668646</v>
       </c>
       <c r="T29">
-        <v>0.1030205616389481</v>
+        <v>0.003526075277217072</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,60 +2279,60 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>30.10944066666667</v>
+        <v>8.738390666666666</v>
       </c>
       <c r="H30">
-        <v>90.328322</v>
+        <v>26.215172</v>
       </c>
       <c r="I30">
-        <v>0.4878449943837915</v>
+        <v>0.154859267933798</v>
       </c>
       <c r="J30">
-        <v>0.4973219817679575</v>
+        <v>0.1554374098006454</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.06999699999999999</v>
+        <v>64.23600733333333</v>
       </c>
       <c r="N30">
-        <v>0.209991</v>
+        <v>192.708022</v>
       </c>
       <c r="O30">
-        <v>0.01522461676637828</v>
+        <v>0.8991294731409735</v>
       </c>
       <c r="P30">
-        <v>0.01680151124069276</v>
+        <v>0.909524444615906</v>
       </c>
       <c r="Q30">
-        <v>2.107570518344666</v>
+        <v>561.3193269455315</v>
       </c>
       <c r="R30">
-        <v>18.968134665102</v>
+        <v>5051.873942509784</v>
       </c>
       <c r="S30">
-        <v>0.007427253080889189</v>
+        <v>0.1392385319883127</v>
       </c>
       <c r="T30">
-        <v>0.008355760866917939</v>
+        <v>0.1413741238214669</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>30.10944066666667</v>
+        <v>8.738390666666666</v>
       </c>
       <c r="H31">
-        <v>90.328322</v>
+        <v>26.215172</v>
       </c>
       <c r="I31">
-        <v>0.4878449943837915</v>
+        <v>0.154859267933798</v>
       </c>
       <c r="J31">
-        <v>0.4973219817679575</v>
+        <v>0.1554374098006454</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.305232666666667</v>
+        <v>0.6091133333333333</v>
       </c>
       <c r="N31">
-        <v>3.915698</v>
+        <v>1.82734</v>
       </c>
       <c r="O31">
-        <v>0.2838931260047998</v>
+        <v>0.00852593075471153</v>
       </c>
       <c r="P31">
-        <v>0.3132974459008157</v>
+        <v>0.008624500326324919</v>
       </c>
       <c r="Q31">
-        <v>39.29982553319511</v>
+        <v>5.322670266942222</v>
       </c>
       <c r="R31">
-        <v>353.698429798756</v>
+        <v>47.90403240248</v>
       </c>
       <c r="S31">
-        <v>0.1384958404614086</v>
+        <v>0.001320319395128882</v>
       </c>
       <c r="T31">
-        <v>0.1558097066782331</v>
+        <v>0.001340569991548766</v>
       </c>
     </row>
   </sheetData>
